--- a/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_hist_Lifetime_Avg.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_hist_Lifetime_Avg.xlsx
@@ -397,7 +397,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.858883216167294E-11</v>
+        <v>2.195405251500087E-06</v>
       </c>
       <c r="D2">
         <v>0.005847165279804633</v>
@@ -431,7 +431,7 @@
         <v>2.950586604829724E-12</v>
       </c>
       <c r="C3">
-        <v>5.025079404054473E-06</v>
+        <v>0.0001062411525673284</v>
       </c>
       <c r="D3">
         <v>0.005098564920815786</v>
@@ -448,7 +448,7 @@
         <v>4.6059516217121E-14</v>
       </c>
       <c r="C4">
-        <v>9.977804045657202E-07</v>
+        <v>9.608716352691787E-05</v>
       </c>
       <c r="D4">
         <v>0.00416693752575932</v>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.627657735623706E-20</v>
+        <v>2.138791829054013E-09</v>
       </c>
       <c r="D5">
         <v>0.0002303590698439988</v>
@@ -492,7 +492,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -587,7 +587,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -604,7 +604,7 @@
         <v>4.950652275767183E-06</v>
       </c>
       <c r="C2">
-        <v>0.00022820374506862</v>
+        <v>0.003816340722347758</v>
       </c>
       <c r="D2">
         <v>0.550768107103167</v>
@@ -621,7 +621,7 @@
         <v>3.366271645354549E-05</v>
       </c>
       <c r="C3">
-        <v>0.01295041722719747</v>
+        <v>0.0137679456486295</v>
       </c>
       <c r="D3">
         <v>0.3911106879319725</v>
@@ -638,7 +638,7 @@
         <v>9.983318368989137E-05</v>
       </c>
       <c r="C4">
-        <v>0.002830890116813284</v>
+        <v>0.003685389348936462</v>
       </c>
       <c r="D4">
         <v>0.331920791580023</v>
@@ -655,7 +655,7 @@
         <v>3.136226004447017E-05</v>
       </c>
       <c r="C5">
-        <v>0.002070717598057516</v>
+        <v>0.008080293662215502</v>
       </c>
       <c r="D5">
         <v>0.4766952795048035</v>
@@ -682,7 +682,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -699,7 +699,7 @@
         <v>8.265846938516411E-07</v>
       </c>
       <c r="C2">
-        <v>2.352433236158991E-05</v>
+        <v>5.750015024097242E-05</v>
       </c>
       <c r="D2">
         <v>0.01548797540195856</v>
@@ -716,7 +716,7 @@
         <v>8.821213221951678E-07</v>
       </c>
       <c r="C3">
-        <v>0.0004775458214733943</v>
+        <v>0.0001921210602835477</v>
       </c>
       <c r="D3">
         <v>0.008156762103353418</v>
@@ -733,7 +733,7 @@
         <v>5.652393175857317E-06</v>
       </c>
       <c r="C4">
-        <v>0.0001052097936530436</v>
+        <v>5.3924808017845E-05</v>
       </c>
       <c r="D4">
         <v>0.008428959977190469</v>
@@ -750,7 +750,7 @@
         <v>3.035133465763993E-06</v>
       </c>
       <c r="C5">
-        <v>0.0001218230503195887</v>
+        <v>6.847896595910317E-05</v>
       </c>
       <c r="D5">
         <v>0.01443724683792224</v>
